--- a/Code/Results/Cases/Case_4_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.10088541206278</v>
+        <v>0.6461749584804295</v>
       </c>
       <c r="C2">
-        <v>0.106072931170452</v>
+        <v>0.1094454731220154</v>
       </c>
       <c r="D2">
-        <v>0.3074424639063835</v>
+        <v>0.5322728414686821</v>
       </c>
       <c r="E2">
-        <v>0.08019755859416833</v>
+        <v>0.1790822283264184</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5201665928614574</v>
+        <v>1.101306767836768</v>
       </c>
       <c r="H2">
-        <v>0.4374931850232571</v>
+        <v>1.11287034217942</v>
       </c>
       <c r="I2">
-        <v>0.4777803332138433</v>
+        <v>1.146592119600857</v>
       </c>
       <c r="J2">
-        <v>0.02549192814818912</v>
+        <v>0.07093276835435436</v>
       </c>
       <c r="K2">
-        <v>0.9553420572856055</v>
+        <v>0.3744685892183668</v>
       </c>
       <c r="L2">
-        <v>0.2732519206497841</v>
+        <v>0.3979277363066842</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.964313945595009</v>
+        <v>4.499097197137942</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9582246483970778</v>
+        <v>0.6051873062638151</v>
       </c>
       <c r="C3">
-        <v>0.101999236014322</v>
+        <v>0.1080092387727802</v>
       </c>
       <c r="D3">
-        <v>0.2871347413742456</v>
+        <v>0.5298351624341961</v>
       </c>
       <c r="E3">
-        <v>0.0775562807820851</v>
+        <v>0.1793319690276789</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5188701449503696</v>
+        <v>1.108875982735164</v>
       </c>
       <c r="H3">
-        <v>0.4433432858835005</v>
+        <v>1.120536043491867</v>
       </c>
       <c r="I3">
-        <v>0.4874728580283367</v>
+        <v>1.15628504769483</v>
       </c>
       <c r="J3">
-        <v>0.02599355083959853</v>
+        <v>0.07130996620941765</v>
       </c>
       <c r="K3">
-        <v>0.832100583582303</v>
+        <v>0.3370222873391242</v>
       </c>
       <c r="L3">
-        <v>0.2485095720441564</v>
+        <v>0.3931358288301539</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.973420182287768</v>
+        <v>4.530913041718463</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8707810542045138</v>
+        <v>0.5801556332272639</v>
       </c>
       <c r="C4">
-        <v>0.09950375197156802</v>
+        <v>0.1071246504466643</v>
       </c>
       <c r="D4">
-        <v>0.2749989147809089</v>
+        <v>0.5285616155283321</v>
       </c>
       <c r="E4">
-        <v>0.07602482031267321</v>
+        <v>0.179549578067757</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5190984104675707</v>
+        <v>1.114082700000225</v>
       </c>
       <c r="H4">
-        <v>0.4475593290219848</v>
+        <v>1.125642704229392</v>
       </c>
       <c r="I4">
-        <v>0.4942444922327915</v>
+        <v>1.162718785918667</v>
       </c>
       <c r="J4">
-        <v>0.02632038592127195</v>
+        <v>0.07155622504394987</v>
       </c>
       <c r="K4">
-        <v>0.7564384781197475</v>
+        <v>0.3140376101979427</v>
       </c>
       <c r="L4">
-        <v>0.2335392209383969</v>
+        <v>0.3903483354083193</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.982479289193122</v>
+        <v>4.552460932178505</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8351747487803323</v>
+        <v>0.5699897606569948</v>
       </c>
       <c r="C5">
-        <v>0.09848802144173874</v>
+        <v>0.1067635149382085</v>
       </c>
       <c r="D5">
-        <v>0.2701334746369639</v>
+        <v>0.528098913798587</v>
       </c>
       <c r="E5">
-        <v>0.07542271267091216</v>
+        <v>0.1796544541707377</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5194394832196636</v>
+        <v>1.116345140688978</v>
       </c>
       <c r="H5">
-        <v>0.4494301764287059</v>
+        <v>1.127824378251645</v>
       </c>
       <c r="I5">
-        <v>0.4972043749743058</v>
+        <v>1.165461925462669</v>
       </c>
       <c r="J5">
-        <v>0.02645827293316927</v>
+        <v>0.07166027066466274</v>
       </c>
       <c r="K5">
-        <v>0.7255994349689558</v>
+        <v>0.3046737066057119</v>
       </c>
       <c r="L5">
-        <v>0.227491057727633</v>
+        <v>0.3892514826619049</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.987014094769606</v>
+        <v>4.561748348516417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8292637324157113</v>
+        <v>0.5683038472794522</v>
       </c>
       <c r="C6">
-        <v>0.09831942553151407</v>
+        <v>0.1067035097456994</v>
       </c>
       <c r="D6">
-        <v>0.2693302970851761</v>
+        <v>0.5280254861700797</v>
       </c>
       <c r="E6">
-        <v>0.07532403964579437</v>
+        <v>0.1796728482476961</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5195108296401258</v>
+        <v>1.11672931425737</v>
       </c>
       <c r="H6">
-        <v>0.4497499386998101</v>
+        <v>1.128192727002734</v>
       </c>
       <c r="I6">
-        <v>0.4977077962590251</v>
+        <v>1.165924752492238</v>
       </c>
       <c r="J6">
-        <v>0.02648145170821792</v>
+        <v>0.07167777063293634</v>
       </c>
       <c r="K6">
-        <v>0.7204780325151887</v>
+        <v>0.3031190101247745</v>
       </c>
       <c r="L6">
-        <v>0.2264898338603416</v>
+        <v>0.3890717157054837</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.987817199771172</v>
+        <v>4.563321116621339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8703007561770164</v>
+        <v>0.5800183909837244</v>
       </c>
       <c r="C7">
-        <v>0.09949004894050972</v>
+        <v>0.1071197826735215</v>
       </c>
       <c r="D7">
-        <v>0.2749329786729504</v>
+        <v>0.5285551472945684</v>
       </c>
       <c r="E7">
-        <v>0.07601661204424914</v>
+        <v>0.1795509268250814</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5191020182016928</v>
+        <v>1.114112642471056</v>
       </c>
       <c r="H7">
-        <v>0.4475839466860592</v>
+        <v>1.125671719296498</v>
       </c>
       <c r="I7">
-        <v>0.4942836065031813</v>
+        <v>1.162755289461067</v>
       </c>
       <c r="J7">
-        <v>0.02632222653580474</v>
+        <v>0.0715576132764939</v>
       </c>
       <c r="K7">
-        <v>0.7560226073972842</v>
+        <v>0.313911314173339</v>
       </c>
       <c r="L7">
-        <v>0.2334574455124709</v>
+        <v>0.3903333844507131</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.982537070510844</v>
+        <v>4.552584134381092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.051658328937492</v>
+        <v>0.6320148888684969</v>
       </c>
       <c r="C8">
-        <v>0.1046669611417173</v>
+        <v>0.1089508440385103</v>
       </c>
       <c r="D8">
-        <v>0.3003688731425598</v>
+        <v>0.5313860955303085</v>
       </c>
       <c r="E8">
-        <v>0.07926765468018004</v>
+        <v>0.1791550228523917</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5195011275048529</v>
+        <v>1.103800602090161</v>
       </c>
       <c r="H8">
-        <v>0.4393782215999948</v>
+        <v>1.115430546814466</v>
       </c>
       <c r="I8">
-        <v>0.4809484119095444</v>
+        <v>1.149834197667001</v>
       </c>
       <c r="J8">
-        <v>0.02566095506022048</v>
+        <v>0.07105978835723548</v>
       </c>
       <c r="K8">
-        <v>0.9128414186707232</v>
+        <v>0.3615559260043426</v>
       </c>
       <c r="L8">
-        <v>0.2646727110213192</v>
+        <v>0.3962434595377715</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.966716245489877</v>
+        <v>4.509649735324814</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.409002943691689</v>
+        <v>0.7350199356715166</v>
       </c>
       <c r="C9">
-        <v>0.1148776646178717</v>
+        <v>0.1125187490943063</v>
       </c>
       <c r="D9">
-        <v>0.3530738652545722</v>
+        <v>0.5387025859608343</v>
       </c>
       <c r="E9">
-        <v>0.08639434921815692</v>
+        <v>0.1788870300156162</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.528862052851153</v>
+        <v>1.0880139078632</v>
       </c>
       <c r="H9">
-        <v>0.4284349486644885</v>
+        <v>1.098515636720961</v>
       </c>
       <c r="I9">
-        <v>0.4615863038915826</v>
+        <v>1.128318995834992</v>
       </c>
       <c r="J9">
-        <v>0.0245154121577551</v>
+        <v>0.07019952569231602</v>
       </c>
       <c r="K9">
-        <v>1.220844624345204</v>
+        <v>0.4550223619599763</v>
       </c>
       <c r="L9">
-        <v>0.3278052620133423</v>
+        <v>0.4090549998408903</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.964575738732918</v>
+        <v>4.441412735229534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.673356543639898</v>
+        <v>0.8112988037186142</v>
       </c>
       <c r="C10">
-        <v>0.1224354674301651</v>
+        <v>0.1151249632013673</v>
       </c>
       <c r="D10">
-        <v>0.3937877993399894</v>
+        <v>0.5451471737181777</v>
       </c>
       <c r="E10">
-        <v>0.09214007639027599</v>
+        <v>0.1789981321664662</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5416301548755342</v>
+        <v>1.079117519343711</v>
       </c>
       <c r="H10">
-        <v>0.4238212487623088</v>
+        <v>1.08801293200959</v>
       </c>
       <c r="I10">
-        <v>0.4519061911899129</v>
+        <v>1.114837850141342</v>
       </c>
       <c r="J10">
-        <v>0.02376847579053631</v>
+        <v>0.0696377251800353</v>
       </c>
       <c r="K10">
-        <v>1.448061404363813</v>
+        <v>0.5236882681654151</v>
       </c>
       <c r="L10">
-        <v>0.3756005744765503</v>
+        <v>0.4192058211320102</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.982617005477124</v>
+        <v>4.400989906185174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.794196884416351</v>
+        <v>0.8461240527647931</v>
       </c>
       <c r="C11">
-        <v>0.125890796724228</v>
+        <v>0.1163070711777294</v>
       </c>
       <c r="D11">
-        <v>0.4128055520991154</v>
+        <v>0.5483097663072414</v>
       </c>
       <c r="E11">
-        <v>0.09487680661216302</v>
+        <v>0.1791151585722872</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.548873653383751</v>
+        <v>1.075656744570111</v>
       </c>
       <c r="H11">
-        <v>0.422534322861452</v>
+        <v>1.083651522768989</v>
       </c>
       <c r="I11">
-        <v>0.448585194315843</v>
+        <v>1.109209065870793</v>
       </c>
       <c r="J11">
-        <v>0.02344982560280773</v>
+        <v>0.06939729975464459</v>
       </c>
       <c r="K11">
-        <v>1.551781451536669</v>
+        <v>0.5549203422300764</v>
       </c>
       <c r="L11">
-        <v>0.3977077689905144</v>
+        <v>0.4239826432295928</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.995556421872863</v>
+        <v>4.384705677532395</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.840056078627782</v>
+        <v>0.8593288137810191</v>
       </c>
       <c r="C12">
-        <v>0.1272021515857986</v>
+        <v>0.1167541798262377</v>
       </c>
       <c r="D12">
-        <v>0.4200840676941198</v>
+        <v>0.5495404244782947</v>
       </c>
       <c r="E12">
-        <v>0.09593188471987801</v>
+        <v>0.1791689981858759</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5518368335532102</v>
+        <v>1.074430508118326</v>
       </c>
       <c r="H12">
-        <v>0.4221698174774104</v>
+        <v>1.082059730203625</v>
       </c>
       <c r="I12">
-        <v>0.4474918367418219</v>
+        <v>1.107149977206344</v>
       </c>
       <c r="J12">
-        <v>0.02333225363321478</v>
+        <v>0.06930842664851866</v>
       </c>
       <c r="K12">
-        <v>1.591122163150345</v>
+        <v>0.5667459158395047</v>
       </c>
       <c r="L12">
-        <v>0.406136662956655</v>
+        <v>0.4258142476893028</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.00117889697944</v>
+        <v>4.378841578446156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.830174792802694</v>
+        <v>0.8564841812683142</v>
       </c>
       <c r="C13">
-        <v>0.1269195920193127</v>
+        <v>0.1166579110385157</v>
       </c>
       <c r="D13">
-        <v>0.4185129979393878</v>
+        <v>0.5492739126135859</v>
       </c>
       <c r="E13">
-        <v>0.09570380390122679</v>
+        <v>0.1791569798454269</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5511886351240207</v>
+        <v>1.074690851796433</v>
       </c>
       <c r="H13">
-        <v>0.422242756450359</v>
+        <v>1.082399893952925</v>
       </c>
       <c r="I13">
-        <v>0.4477198643716989</v>
+        <v>1.107590219049179</v>
       </c>
       <c r="J13">
-        <v>0.02335743635004217</v>
+        <v>0.06932747061703015</v>
       </c>
       <c r="K13">
-        <v>1.582646370395366</v>
+        <v>0.564199137532313</v>
       </c>
       <c r="L13">
-        <v>0.4043187161466761</v>
+        <v>0.4254187707458073</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.999935158967389</v>
+        <v>4.380091071859283</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.797967659356573</v>
+        <v>0.8472100767491213</v>
       </c>
       <c r="C14">
-        <v>0.1259986221153895</v>
+        <v>0.1163438658734961</v>
       </c>
       <c r="D14">
-        <v>0.4134027860962135</v>
+        <v>0.5484103517396051</v>
       </c>
       <c r="E14">
-        <v>0.09496322671322233</v>
+        <v>0.1791193973171872</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5491129398918133</v>
+        <v>1.07555417228059</v>
       </c>
       <c r="H14">
-        <v>0.4225018369310618</v>
+        <v>1.083519367491547</v>
       </c>
       <c r="I14">
-        <v>0.4484919006743162</v>
+        <v>1.109038212459588</v>
       </c>
       <c r="J14">
-        <v>0.0234400905536889</v>
+        <v>0.06938994464120718</v>
       </c>
       <c r="K14">
-        <v>1.5550166732327</v>
+        <v>0.5558932700666901</v>
       </c>
       <c r="L14">
-        <v>0.3984000399023557</v>
+        <v>0.4241328759021172</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.996004253454629</v>
+        <v>4.384217175551527</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.77825330783952</v>
+        <v>0.8415316335369027</v>
       </c>
       <c r="C15">
-        <v>0.1254348916380437</v>
+        <v>0.1161514342123979</v>
       </c>
       <c r="D15">
-        <v>0.4102828173614341</v>
+        <v>0.5478856957125515</v>
       </c>
       <c r="E15">
-        <v>0.09451207444153198</v>
+        <v>0.1790976161963016</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5478706224356387</v>
+        <v>1.076093956757148</v>
       </c>
       <c r="H15">
-        <v>0.4226767139534076</v>
+        <v>1.084212859663168</v>
       </c>
       <c r="I15">
-        <v>0.448986446532917</v>
+        <v>1.109934578816397</v>
       </c>
       <c r="J15">
-        <v>0.02349112324309299</v>
+        <v>0.06942849429603459</v>
       </c>
       <c r="K15">
-        <v>1.538101436862718</v>
+        <v>0.5508054917115714</v>
       </c>
       <c r="L15">
-        <v>0.394782303628503</v>
+        <v>0.4233481829245136</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.993691859968436</v>
+        <v>4.386783906300138</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.66547240791823</v>
+        <v>0.809025345167754</v>
       </c>
       <c r="C16">
-        <v>0.1222100354162876</v>
+        <v>0.1150476371684803</v>
       </c>
       <c r="D16">
-        <v>0.3925554006631842</v>
+        <v>0.5449451244567598</v>
       </c>
       <c r="E16">
-        <v>0.0919637877938726</v>
+        <v>0.1789918189714932</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5411868186196926</v>
+        <v>1.079355484316281</v>
       </c>
       <c r="H16">
-        <v>0.4239222000422274</v>
+        <v>1.088306330292014</v>
       </c>
       <c r="I16">
-        <v>0.4521457293964275</v>
+        <v>1.115215839531473</v>
       </c>
       <c r="J16">
-        <v>0.02378973022705733</v>
+        <v>0.06965374166400906</v>
       </c>
       <c r="K16">
-        <v>1.441291324100376</v>
+        <v>0.521647030123745</v>
       </c>
       <c r="L16">
-        <v>0.3741635718848215</v>
+        <v>0.4188968335010372</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.981870147931829</v>
+        <v>4.40209644484159</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.596445400248626</v>
+        <v>0.7891153437629725</v>
       </c>
       <c r="C17">
-        <v>0.1202363936088631</v>
+        <v>0.1143695822663986</v>
       </c>
       <c r="D17">
-        <v>0.3818112261564437</v>
+        <v>0.5432002141406258</v>
       </c>
       <c r="E17">
-        <v>0.09043272223384946</v>
+        <v>0.178943918503343</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5374636885101438</v>
+        <v>1.08150646372053</v>
       </c>
       <c r="H17">
-        <v>0.4248984075860847</v>
+        <v>1.090924109398742</v>
       </c>
       <c r="I17">
-        <v>0.4543670360075751</v>
+        <v>1.118584740165936</v>
       </c>
       <c r="J17">
-        <v>0.0239783670664071</v>
+        <v>0.06979579689700177</v>
       </c>
       <c r="K17">
-        <v>1.382001898212366</v>
+        <v>0.5037576324624808</v>
       </c>
       <c r="L17">
-        <v>0.3616114926052632</v>
+        <v>0.4162067250325379</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.975859085437577</v>
+        <v>4.412029005846108</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.556796919886182</v>
+        <v>0.7776755122128804</v>
       </c>
       <c r="C18">
-        <v>0.1191028034591426</v>
+        <v>0.1139792580540018</v>
       </c>
       <c r="D18">
-        <v>0.3756778731648467</v>
+        <v>0.542218332041557</v>
       </c>
       <c r="E18">
-        <v>0.08956360142875042</v>
+        <v>0.1789226275162505</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.53545645302016</v>
+        <v>1.082798830584139</v>
       </c>
       <c r="H18">
-        <v>0.4255359266685588</v>
+        <v>1.092468978321378</v>
       </c>
       <c r="I18">
-        <v>0.4557460223456467</v>
+        <v>1.120569870693103</v>
       </c>
       <c r="J18">
-        <v>0.02408885184225262</v>
+        <v>0.06987892877979007</v>
       </c>
       <c r="K18">
-        <v>1.347933070921073</v>
+        <v>0.4934677527029407</v>
       </c>
       <c r="L18">
-        <v>0.3544258987790414</v>
+        <v>0.4146744365968118</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.972844437050128</v>
+        <v>4.417940033455039</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.543381449993831</v>
+        <v>0.7738042477677709</v>
       </c>
       <c r="C19">
-        <v>0.1187192513601971</v>
+        <v>0.1138470461094201</v>
       </c>
       <c r="D19">
-        <v>0.373609035443863</v>
+        <v>0.5418896228638772</v>
       </c>
       <c r="E19">
-        <v>0.08927127741498708</v>
+        <v>0.1789164950370363</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5347994809485783</v>
+        <v>1.083245881576715</v>
       </c>
       <c r="H19">
-        <v>0.4257646590748152</v>
+        <v>1.092998778295367</v>
       </c>
       <c r="I19">
-        <v>0.4562300780532702</v>
+        <v>1.121250148933651</v>
       </c>
       <c r="J19">
-        <v>0.02412659954434471</v>
+        <v>0.06990732082829698</v>
       </c>
       <c r="K19">
-        <v>1.336403226742817</v>
+        <v>0.4899837339077635</v>
       </c>
       <c r="L19">
-        <v>0.351998680475802</v>
+        <v>0.414158209676188</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.971898533809167</v>
+        <v>4.419975432994931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.603787742330724</v>
+        <v>0.7912335747109296</v>
       </c>
       <c r="C20">
-        <v>0.1204463230168002</v>
+        <v>0.1144417962260391</v>
       </c>
       <c r="D20">
-        <v>0.382950119881599</v>
+        <v>0.543383713489149</v>
       </c>
       <c r="E20">
-        <v>0.0905945083490316</v>
+        <v>0.1789483699567604</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5378460343504798</v>
+        <v>1.081271777442538</v>
       </c>
       <c r="H20">
-        <v>0.424786576989888</v>
+        <v>1.090641386799632</v>
       </c>
       <c r="I20">
-        <v>0.4541200245103028</v>
+        <v>1.118221206643597</v>
       </c>
       <c r="J20">
-        <v>0.02395808043784786</v>
+        <v>0.06978052739077878</v>
       </c>
       <c r="K20">
-        <v>1.388309866511435</v>
+        <v>0.5056620329227997</v>
       </c>
       <c r="L20">
-        <v>0.3629441263282729</v>
+        <v>0.4164915413521584</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.976452853457374</v>
+        <v>4.410951168651877</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.807424843408228</v>
+        <v>0.8499336462886617</v>
       </c>
       <c r="C21">
-        <v>0.1262690511945692</v>
+        <v>0.1164361231789499</v>
       </c>
       <c r="D21">
-        <v>0.4149016466872979</v>
+        <v>0.5486631046697852</v>
       </c>
       <c r="E21">
-        <v>0.09518023491326844</v>
+        <v>0.1791301780201202</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5497165302981983</v>
+        <v>1.075298306820088</v>
       </c>
       <c r="H21">
-        <v>0.4224223548284129</v>
+        <v>1.08318892930869</v>
       </c>
       <c r="I21">
-        <v>0.4482606067213055</v>
+        <v>1.108610936865581</v>
       </c>
       <c r="J21">
-        <v>0.02341572858924046</v>
+        <v>0.06937153564209186</v>
       </c>
       <c r="K21">
-        <v>1.563130337375725</v>
+        <v>0.558332946507619</v>
       </c>
       <c r="L21">
-        <v>0.4001369005563902</v>
+        <v>0.4245099589110595</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.997138895486046</v>
+        <v>4.382997033942388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.941101897017006</v>
+        <v>0.8883973610872431</v>
       </c>
       <c r="C22">
-        <v>0.130091643136808</v>
+        <v>0.1177364278361352</v>
       </c>
       <c r="D22">
-        <v>0.4362348716189501</v>
+        <v>0.5523060792057777</v>
       </c>
       <c r="E22">
-        <v>0.09828702810225209</v>
+        <v>0.1793044979274292</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5587653036079843</v>
+        <v>1.071885561316734</v>
       </c>
       <c r="H22">
-        <v>0.4215962339294634</v>
+        <v>1.078666711458055</v>
       </c>
       <c r="I22">
-        <v>0.4453927821517993</v>
+        <v>1.102752109260187</v>
       </c>
       <c r="J22">
-        <v>0.02307933194314771</v>
+        <v>0.06911688595197862</v>
       </c>
       <c r="K22">
-        <v>1.677766284258979</v>
+        <v>0.5927483267622051</v>
       </c>
       <c r="L22">
-        <v>0.4247814976033055</v>
+        <v>0.4298828454748929</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.014891820959377</v>
+        <v>4.366489822362837</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869696675764573</v>
+        <v>0.8678597046847187</v>
       </c>
       <c r="C23">
-        <v>0.1280497422153744</v>
+        <v>0.1170427248230226</v>
       </c>
       <c r="D23">
-        <v>0.4248057576393762</v>
+        <v>0.5503441838607728</v>
       </c>
       <c r="E23">
-        <v>0.09661846548680586</v>
+        <v>0.1792063940342139</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5538128913450606</v>
+        <v>1.073662062744546</v>
       </c>
       <c r="H23">
-        <v>0.4219692440366316</v>
+        <v>1.081048455247199</v>
       </c>
       <c r="I23">
-        <v>0.446832429255668</v>
+        <v>1.105840473741445</v>
       </c>
       <c r="J23">
-        <v>0.02325720157135436</v>
+        <v>0.06925164190332467</v>
       </c>
       <c r="K23">
-        <v>1.616543650620912</v>
+        <v>0.5743811643255299</v>
       </c>
       <c r="L23">
-        <v>0.411595670070966</v>
+        <v>0.4270031748038292</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.005014761028917</v>
+        <v>4.375138839838314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.600468158298497</v>
+        <v>0.7902759015847209</v>
       </c>
       <c r="C24">
-        <v>0.1203514105899046</v>
+        <v>0.1144091498538771</v>
       </c>
       <c r="D24">
-        <v>0.3824350905835558</v>
+        <v>0.5433006871067789</v>
       </c>
       <c r="E24">
-        <v>0.0905213303227228</v>
+        <v>0.1789463379914906</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5376727618144201</v>
+        <v>1.08137770548079</v>
       </c>
       <c r="H24">
-        <v>0.4248368984488451</v>
+        <v>1.090769081477603</v>
       </c>
       <c r="I24">
-        <v>0.4542313815679471</v>
+        <v>1.118385409679529</v>
       </c>
       <c r="J24">
-        <v>0.02396724568825181</v>
+        <v>0.0697874261788094</v>
       </c>
       <c r="K24">
-        <v>1.385457980629127</v>
+        <v>0.5048010690796616</v>
       </c>
       <c r="L24">
-        <v>0.3623415471674036</v>
+        <v>0.4163627313685367</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.976183039873803</v>
+        <v>4.411437833768446</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.312072545261231</v>
+        <v>0.7070464148094402</v>
       </c>
       <c r="C25">
-        <v>0.1121071192039693</v>
+        <v>0.1115561047261338</v>
       </c>
       <c r="D25">
-        <v>0.3384864346407852</v>
+        <v>0.5365350312876558</v>
       </c>
       <c r="E25">
-        <v>0.08438078764113399</v>
+        <v>0.1789053031168351</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5253453989786578</v>
+        <v>1.091809985801206</v>
       </c>
       <c r="H25">
-        <v>0.4308155685119033</v>
+        <v>1.102753098205312</v>
       </c>
       <c r="I25">
-        <v>0.4660569531823953</v>
+        <v>1.133730618168585</v>
       </c>
       <c r="J25">
-        <v>0.02480887304294299</v>
+        <v>0.0704198822555977</v>
       </c>
       <c r="K25">
-        <v>1.137407192610368</v>
+        <v>0.4297360613533385</v>
       </c>
       <c r="L25">
-        <v>0.3104966671272962</v>
+        <v>0.4054590210379132</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.96186266001439</v>
+        <v>4.458166086354794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_249/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6461749584804295</v>
+        <v>1.10088541206278</v>
       </c>
       <c r="C2">
-        <v>0.1094454731220154</v>
+        <v>0.106072931170452</v>
       </c>
       <c r="D2">
-        <v>0.5322728414686821</v>
+        <v>0.3074424639064972</v>
       </c>
       <c r="E2">
-        <v>0.1790822283264184</v>
+        <v>0.08019755859416833</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.101306767836768</v>
+        <v>0.5201665928615213</v>
       </c>
       <c r="H2">
-        <v>1.11287034217942</v>
+        <v>0.4374931850232571</v>
       </c>
       <c r="I2">
-        <v>1.146592119600857</v>
+        <v>0.4777803332138433</v>
       </c>
       <c r="J2">
-        <v>0.07093276835435436</v>
+        <v>0.0254919281481687</v>
       </c>
       <c r="K2">
-        <v>0.3744685892183668</v>
+        <v>0.9553420572856339</v>
       </c>
       <c r="L2">
-        <v>0.3979277363066842</v>
+        <v>0.2732519206497557</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.499097197137942</v>
+        <v>1.964313945595023</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6051873062638151</v>
+        <v>0.9582246483970778</v>
       </c>
       <c r="C3">
-        <v>0.1080092387727802</v>
+        <v>0.101999236014322</v>
       </c>
       <c r="D3">
-        <v>0.5298351624341961</v>
+        <v>0.2871347413743024</v>
       </c>
       <c r="E3">
-        <v>0.1793319690276789</v>
+        <v>0.07755628078207266</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.108875982735164</v>
+        <v>0.5188701449504336</v>
       </c>
       <c r="H3">
-        <v>1.120536043491867</v>
+        <v>0.4433432858835005</v>
       </c>
       <c r="I3">
-        <v>1.15628504769483</v>
+        <v>0.4874728580283438</v>
       </c>
       <c r="J3">
-        <v>0.07130996620941765</v>
+        <v>0.02599355083962251</v>
       </c>
       <c r="K3">
-        <v>0.3370222873391242</v>
+        <v>0.8321005835821609</v>
       </c>
       <c r="L3">
-        <v>0.3931358288301539</v>
+        <v>0.2485095720441848</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.530913041718463</v>
+        <v>1.973420182287796</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5801556332272639</v>
+        <v>0.8707810542045138</v>
       </c>
       <c r="C4">
-        <v>0.1071246504466643</v>
+        <v>0.09950375197157513</v>
       </c>
       <c r="D4">
-        <v>0.5285616155283321</v>
+        <v>0.2749989147811362</v>
       </c>
       <c r="E4">
-        <v>0.179549578067757</v>
+        <v>0.07602482031265723</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.114082700000225</v>
+        <v>0.5190984104675778</v>
       </c>
       <c r="H4">
-        <v>1.125642704229392</v>
+        <v>0.4475593290219919</v>
       </c>
       <c r="I4">
-        <v>1.162718785918667</v>
+        <v>0.49424449223282</v>
       </c>
       <c r="J4">
-        <v>0.07155622504394987</v>
+        <v>0.02632038592118846</v>
       </c>
       <c r="K4">
-        <v>0.3140376101979427</v>
+        <v>0.7564384781196907</v>
       </c>
       <c r="L4">
-        <v>0.3903483354083193</v>
+        <v>0.23353922093834</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.552460932178505</v>
+        <v>1.982479289193151</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5699897606569948</v>
+        <v>0.8351747487804744</v>
       </c>
       <c r="C5">
-        <v>0.1067635149382085</v>
+        <v>0.09848802144135504</v>
       </c>
       <c r="D5">
-        <v>0.528098913798587</v>
+        <v>0.2701334746371913</v>
       </c>
       <c r="E5">
-        <v>0.1796544541707377</v>
+        <v>0.07542271267091749</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.116345140688978</v>
+        <v>0.5194394832196139</v>
       </c>
       <c r="H5">
-        <v>1.127824378251645</v>
+        <v>0.4494301764285922</v>
       </c>
       <c r="I5">
-        <v>1.165461925462669</v>
+        <v>0.4972043749743236</v>
       </c>
       <c r="J5">
-        <v>0.07166027066466274</v>
+        <v>0.02645827293313019</v>
       </c>
       <c r="K5">
-        <v>0.3046737066057119</v>
+        <v>0.7255994349689132</v>
       </c>
       <c r="L5">
-        <v>0.3892514826619049</v>
+        <v>0.2274910577276614</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.561748348516417</v>
+        <v>1.987014094769606</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5683038472794522</v>
+        <v>0.8292637324157681</v>
       </c>
       <c r="C6">
-        <v>0.1067035097456994</v>
+        <v>0.09831942553174855</v>
       </c>
       <c r="D6">
-        <v>0.5280254861700797</v>
+        <v>0.269330297085034</v>
       </c>
       <c r="E6">
-        <v>0.1796728482476961</v>
+        <v>0.07532403964580325</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.11672931425737</v>
+        <v>0.5195108296400619</v>
       </c>
       <c r="H6">
-        <v>1.128192727002734</v>
+        <v>0.4497499386997887</v>
       </c>
       <c r="I6">
-        <v>1.165924752492238</v>
+        <v>0.4977077962590215</v>
       </c>
       <c r="J6">
-        <v>0.07167777063293634</v>
+        <v>0.02648145170824812</v>
       </c>
       <c r="K6">
-        <v>0.3031190101247745</v>
+        <v>0.7204780325152882</v>
       </c>
       <c r="L6">
-        <v>0.3890717157054837</v>
+        <v>0.2264898338603132</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.563321116621339</v>
+        <v>1.9878171997713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5800183909837244</v>
+        <v>0.8703007561769027</v>
       </c>
       <c r="C7">
-        <v>0.1071197826735215</v>
+        <v>0.09949004894018287</v>
       </c>
       <c r="D7">
-        <v>0.5285551472945684</v>
+        <v>0.2749329786730783</v>
       </c>
       <c r="E7">
-        <v>0.1795509268250814</v>
+        <v>0.07601661204424737</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.114112642471056</v>
+        <v>0.5191020182016786</v>
       </c>
       <c r="H7">
-        <v>1.125671719296498</v>
+        <v>0.4475839466859384</v>
       </c>
       <c r="I7">
-        <v>1.162755289461067</v>
+        <v>0.4942836065031671</v>
       </c>
       <c r="J7">
-        <v>0.0715576132764939</v>
+        <v>0.02632222653575234</v>
       </c>
       <c r="K7">
-        <v>0.313911314173339</v>
+        <v>0.7560226073971705</v>
       </c>
       <c r="L7">
-        <v>0.3903333844507131</v>
+        <v>0.2334574455124425</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.552584134381092</v>
+        <v>1.982537070510745</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6320148888684969</v>
+        <v>1.051658328937719</v>
       </c>
       <c r="C8">
-        <v>0.1089508440385103</v>
+        <v>0.1046669611422644</v>
       </c>
       <c r="D8">
-        <v>0.5313860955303085</v>
+        <v>0.3003688731425456</v>
       </c>
       <c r="E8">
-        <v>0.1791550228523917</v>
+        <v>0.0792676546801907</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.103800602090161</v>
+        <v>0.5195011275048174</v>
       </c>
       <c r="H8">
-        <v>1.115430546814466</v>
+        <v>0.4393782215999948</v>
       </c>
       <c r="I8">
-        <v>1.149834197667001</v>
+        <v>0.4809484119095409</v>
       </c>
       <c r="J8">
-        <v>0.07105978835723548</v>
+        <v>0.02566095506026222</v>
       </c>
       <c r="K8">
-        <v>0.3615559260043426</v>
+        <v>0.9128414186706095</v>
       </c>
       <c r="L8">
-        <v>0.3962434595377715</v>
+        <v>0.2646727110212623</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.509649735324814</v>
+        <v>1.966716245489863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7350199356715166</v>
+        <v>1.409002943691661</v>
       </c>
       <c r="C9">
-        <v>0.1125187490943063</v>
+        <v>0.114877664618092</v>
       </c>
       <c r="D9">
-        <v>0.5387025859608343</v>
+        <v>0.3530738652545864</v>
       </c>
       <c r="E9">
-        <v>0.1788870300156162</v>
+        <v>0.08639434921813915</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.0880139078632</v>
+        <v>0.5288620528511956</v>
       </c>
       <c r="H9">
-        <v>1.098515636720961</v>
+        <v>0.4284349486644885</v>
       </c>
       <c r="I9">
-        <v>1.128318995834992</v>
+        <v>0.4615863038915968</v>
       </c>
       <c r="J9">
-        <v>0.07019952569231602</v>
+        <v>0.02451541215781639</v>
       </c>
       <c r="K9">
-        <v>0.4550223619599763</v>
+        <v>1.220844624345176</v>
       </c>
       <c r="L9">
-        <v>0.4090549998408903</v>
+        <v>0.3278052620133423</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.441412735229534</v>
+        <v>1.96457573873289</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8112988037186142</v>
+        <v>1.67335654364004</v>
       </c>
       <c r="C10">
-        <v>0.1151249632013673</v>
+        <v>0.1224354674300727</v>
       </c>
       <c r="D10">
-        <v>0.5451471737181777</v>
+        <v>0.3937877993399894</v>
       </c>
       <c r="E10">
-        <v>0.1789981321664662</v>
+        <v>0.09214007639024047</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.079117519343711</v>
+        <v>0.5416301548755911</v>
       </c>
       <c r="H10">
-        <v>1.08801293200959</v>
+        <v>0.4238212487623088</v>
       </c>
       <c r="I10">
-        <v>1.114837850141342</v>
+        <v>0.4519061911899307</v>
       </c>
       <c r="J10">
-        <v>0.0696377251800353</v>
+        <v>0.02376847579055408</v>
       </c>
       <c r="K10">
-        <v>0.5236882681654151</v>
+        <v>1.448061404363756</v>
       </c>
       <c r="L10">
-        <v>0.4192058211320102</v>
+        <v>0.3756005744765645</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.400989906185174</v>
+        <v>1.982617005477181</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8461240527647931</v>
+        <v>1.794196884416266</v>
       </c>
       <c r="C11">
-        <v>0.1163070711777294</v>
+        <v>0.1258907967240503</v>
       </c>
       <c r="D11">
-        <v>0.5483097663072414</v>
+        <v>0.4128055520989875</v>
       </c>
       <c r="E11">
-        <v>0.1791151585722872</v>
+        <v>0.09487680661215947</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.075656744570111</v>
+        <v>0.5488736533837795</v>
       </c>
       <c r="H11">
-        <v>1.083651522768989</v>
+        <v>0.4225343228614378</v>
       </c>
       <c r="I11">
-        <v>1.109209065870793</v>
+        <v>0.448585194315843</v>
       </c>
       <c r="J11">
-        <v>0.06939729975464459</v>
+        <v>0.02344982560278552</v>
       </c>
       <c r="K11">
-        <v>0.5549203422300764</v>
+        <v>1.551781451536669</v>
       </c>
       <c r="L11">
-        <v>0.4239826432295928</v>
+        <v>0.3977077689906423</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.384705677532395</v>
+        <v>1.995556421872834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8593288137810191</v>
+        <v>1.84005607862764</v>
       </c>
       <c r="C12">
-        <v>0.1167541798262377</v>
+        <v>0.1272021515857062</v>
       </c>
       <c r="D12">
-        <v>0.5495404244782947</v>
+        <v>0.4200840676940061</v>
       </c>
       <c r="E12">
-        <v>0.1791689981858759</v>
+        <v>0.09593188471986025</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.074430508118326</v>
+        <v>0.5518368335532955</v>
       </c>
       <c r="H12">
-        <v>1.082059730203625</v>
+        <v>0.4221698174774104</v>
       </c>
       <c r="I12">
-        <v>1.107149977206344</v>
+        <v>0.4474918367418184</v>
       </c>
       <c r="J12">
-        <v>0.06930842664851866</v>
+        <v>0.02333225363332581</v>
       </c>
       <c r="K12">
-        <v>0.5667459158395047</v>
+        <v>1.591122163150374</v>
       </c>
       <c r="L12">
-        <v>0.4258142476893028</v>
+        <v>0.4061366629566976</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.378841578446156</v>
+        <v>2.00117889697944</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8564841812683142</v>
+        <v>1.830174792802637</v>
       </c>
       <c r="C13">
-        <v>0.1166579110385157</v>
+        <v>0.1269195920194122</v>
       </c>
       <c r="D13">
-        <v>0.5492739126135859</v>
+        <v>0.4185129979391888</v>
       </c>
       <c r="E13">
-        <v>0.1791569798454269</v>
+        <v>0.09570380390124456</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.074690851796433</v>
+        <v>0.5511886351239639</v>
       </c>
       <c r="H13">
-        <v>1.082399893952925</v>
+        <v>0.422242756450359</v>
       </c>
       <c r="I13">
-        <v>1.107590219049179</v>
+        <v>0.4477198643716953</v>
       </c>
       <c r="J13">
-        <v>0.06932747061703015</v>
+        <v>0.02335743634998089</v>
       </c>
       <c r="K13">
-        <v>0.564199137532313</v>
+        <v>1.582646370395508</v>
       </c>
       <c r="L13">
-        <v>0.4254187707458073</v>
+        <v>0.4043187161466619</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.380091071859283</v>
+        <v>1.999935158967389</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8472100767491213</v>
+        <v>1.797967659356544</v>
       </c>
       <c r="C14">
-        <v>0.1163438658734961</v>
+        <v>0.1259986221148992</v>
       </c>
       <c r="D14">
-        <v>0.5484103517396051</v>
+        <v>0.4134027860961567</v>
       </c>
       <c r="E14">
-        <v>0.1791193973171872</v>
+        <v>0.09496322671323298</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.07555417228059</v>
+        <v>0.5491129398918417</v>
       </c>
       <c r="H14">
-        <v>1.083519367491547</v>
+        <v>0.4225018369309339</v>
       </c>
       <c r="I14">
-        <v>1.109038212459588</v>
+        <v>0.4484919006743304</v>
       </c>
       <c r="J14">
-        <v>0.06938994464120718</v>
+        <v>0.02344009055360985</v>
       </c>
       <c r="K14">
-        <v>0.5558932700666901</v>
+        <v>1.555016673232757</v>
       </c>
       <c r="L14">
-        <v>0.4241328759021172</v>
+        <v>0.3984000399023273</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.384217175551527</v>
+        <v>1.996004253454714</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8415316335369027</v>
+        <v>1.778253307839549</v>
       </c>
       <c r="C15">
-        <v>0.1161514342123979</v>
+        <v>0.12543489163793</v>
       </c>
       <c r="D15">
-        <v>0.5478856957125515</v>
+        <v>0.4102828173613915</v>
       </c>
       <c r="E15">
-        <v>0.1790976161963016</v>
+        <v>0.09451207444154619</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.076093956757148</v>
+        <v>0.5478706224356813</v>
       </c>
       <c r="H15">
-        <v>1.084212859663168</v>
+        <v>0.4226767139535212</v>
       </c>
       <c r="I15">
-        <v>1.109934578816397</v>
+        <v>0.4489864465329134</v>
       </c>
       <c r="J15">
-        <v>0.06942849429603459</v>
+        <v>0.02349112324307345</v>
       </c>
       <c r="K15">
-        <v>0.5508054917115714</v>
+        <v>1.538101436862803</v>
       </c>
       <c r="L15">
-        <v>0.4233481829245136</v>
+        <v>0.394782303628503</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.386783906300138</v>
+        <v>1.993691859968436</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.809025345167754</v>
+        <v>1.665472407918372</v>
       </c>
       <c r="C16">
-        <v>0.1150476371684803</v>
+        <v>0.122210035416515</v>
       </c>
       <c r="D16">
-        <v>0.5449451244567598</v>
+        <v>0.3925554006633121</v>
       </c>
       <c r="E16">
-        <v>0.1789918189714932</v>
+        <v>0.09196378779385483</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.079355484316281</v>
+        <v>0.5411868186197637</v>
       </c>
       <c r="H16">
-        <v>1.088306330292014</v>
+        <v>0.4239222000422131</v>
       </c>
       <c r="I16">
-        <v>1.115215839531473</v>
+        <v>0.4521457293964275</v>
       </c>
       <c r="J16">
-        <v>0.06965374166400906</v>
+        <v>0.02378973022710085</v>
       </c>
       <c r="K16">
-        <v>0.521647030123745</v>
+        <v>1.441291324100433</v>
       </c>
       <c r="L16">
-        <v>0.4188968335010372</v>
+        <v>0.3741635718847789</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.40209644484159</v>
+        <v>1.981870147931858</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7891153437629725</v>
+        <v>1.596445400248513</v>
       </c>
       <c r="C17">
-        <v>0.1143695822663986</v>
+        <v>0.1202363936090975</v>
       </c>
       <c r="D17">
-        <v>0.5432002141406258</v>
+        <v>0.3818112261565147</v>
       </c>
       <c r="E17">
-        <v>0.178943918503343</v>
+        <v>0.09043272223387433</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.08150646372053</v>
+        <v>0.5374636885101864</v>
       </c>
       <c r="H17">
-        <v>1.090924109398742</v>
+        <v>0.4248984075860989</v>
       </c>
       <c r="I17">
-        <v>1.118584740165936</v>
+        <v>0.4543670360075929</v>
       </c>
       <c r="J17">
-        <v>0.06979579689700177</v>
+        <v>0.02397836706630052</v>
       </c>
       <c r="K17">
-        <v>0.5037576324624808</v>
+        <v>1.382001898212366</v>
       </c>
       <c r="L17">
-        <v>0.4162067250325379</v>
+        <v>0.3616114926053484</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.412029005846108</v>
+        <v>1.975859085437605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7776755122128804</v>
+        <v>1.556796919886381</v>
       </c>
       <c r="C18">
-        <v>0.1139792580540018</v>
+        <v>0.1191028034592847</v>
       </c>
       <c r="D18">
-        <v>0.542218332041557</v>
+        <v>0.3756778731651877</v>
       </c>
       <c r="E18">
-        <v>0.1789226275162505</v>
+        <v>0.089563601428722</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.082798830584139</v>
+        <v>0.5354564530201884</v>
       </c>
       <c r="H18">
-        <v>1.092468978321378</v>
+        <v>0.4255359266685588</v>
       </c>
       <c r="I18">
-        <v>1.120569870693103</v>
+        <v>0.4557460223456502</v>
       </c>
       <c r="J18">
-        <v>0.06987892877979007</v>
+        <v>0.02408885184217269</v>
       </c>
       <c r="K18">
-        <v>0.4934677527029407</v>
+        <v>1.347933070921215</v>
       </c>
       <c r="L18">
-        <v>0.4146744365968118</v>
+        <v>0.3544258987790556</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.417940033455039</v>
+        <v>1.972844437050242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7738042477677709</v>
+        <v>1.54338144999366</v>
       </c>
       <c r="C19">
-        <v>0.1138470461094201</v>
+        <v>0.1187192513600479</v>
       </c>
       <c r="D19">
-        <v>0.5418896228638772</v>
+        <v>0.3736090354439909</v>
       </c>
       <c r="E19">
-        <v>0.1789164950370363</v>
+        <v>0.08927127741497287</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.083245881576715</v>
+        <v>0.534799480948692</v>
       </c>
       <c r="H19">
-        <v>1.092998778295367</v>
+        <v>0.4257646590748294</v>
       </c>
       <c r="I19">
-        <v>1.121250148933651</v>
+        <v>0.4562300780532951</v>
       </c>
       <c r="J19">
-        <v>0.06990732082829698</v>
+        <v>0.02412659954431007</v>
       </c>
       <c r="K19">
-        <v>0.4899837339077635</v>
+        <v>1.336403226742874</v>
       </c>
       <c r="L19">
-        <v>0.414158209676188</v>
+        <v>0.3519986804758162</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.419975432994931</v>
+        <v>1.971898533809252</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7912335747109296</v>
+        <v>1.603787742330724</v>
       </c>
       <c r="C20">
-        <v>0.1144417962260391</v>
+        <v>0.1204463230167931</v>
       </c>
       <c r="D20">
-        <v>0.543383713489149</v>
+        <v>0.3829501198816558</v>
       </c>
       <c r="E20">
-        <v>0.1789483699567604</v>
+        <v>0.09059450834902094</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.081271777442538</v>
+        <v>0.5378460343504941</v>
       </c>
       <c r="H20">
-        <v>1.090641386799632</v>
+        <v>0.4247865769900017</v>
       </c>
       <c r="I20">
-        <v>1.118221206643597</v>
+        <v>0.4541200245103205</v>
       </c>
       <c r="J20">
-        <v>0.06978052739077878</v>
+        <v>0.0239580804377546</v>
       </c>
       <c r="K20">
-        <v>0.5056620329227997</v>
+        <v>1.388309866511491</v>
       </c>
       <c r="L20">
-        <v>0.4164915413521584</v>
+        <v>0.3629441263284008</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.410951168651877</v>
+        <v>1.976452853457431</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8499336462886617</v>
+        <v>1.807424843408114</v>
       </c>
       <c r="C21">
-        <v>0.1164361231789499</v>
+        <v>0.1262690511946616</v>
       </c>
       <c r="D21">
-        <v>0.5486631046697852</v>
+        <v>0.41490164668717</v>
       </c>
       <c r="E21">
-        <v>0.1791301780201202</v>
+        <v>0.09518023491328265</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.075298306820088</v>
+        <v>0.5497165302982552</v>
       </c>
       <c r="H21">
-        <v>1.08318892930869</v>
+        <v>0.4224223548284129</v>
       </c>
       <c r="I21">
-        <v>1.108610936865581</v>
+        <v>0.4482606067212949</v>
       </c>
       <c r="J21">
-        <v>0.06937153564209186</v>
+        <v>0.02341572858919339</v>
       </c>
       <c r="K21">
-        <v>0.558332946507619</v>
+        <v>1.563130337375725</v>
       </c>
       <c r="L21">
-        <v>0.4245099589110595</v>
+        <v>0.400136900556376</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.382997033942388</v>
+        <v>1.997138895486074</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8883973610872431</v>
+        <v>1.941101897016893</v>
       </c>
       <c r="C22">
-        <v>0.1177364278361352</v>
+        <v>0.1300916431365948</v>
       </c>
       <c r="D22">
-        <v>0.5523060792057777</v>
+        <v>0.4362348716188933</v>
       </c>
       <c r="E22">
-        <v>0.1793044979274292</v>
+        <v>0.09828702810225565</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.071885561316734</v>
+        <v>0.5587653036079558</v>
       </c>
       <c r="H22">
-        <v>1.078666711458055</v>
+        <v>0.4215962339293498</v>
       </c>
       <c r="I22">
-        <v>1.102752109260187</v>
+        <v>0.4453927821517851</v>
       </c>
       <c r="J22">
-        <v>0.06911688595197862</v>
+        <v>0.02307933194312461</v>
       </c>
       <c r="K22">
-        <v>0.5927483267622051</v>
+        <v>1.677766284258922</v>
       </c>
       <c r="L22">
-        <v>0.4298828454748929</v>
+        <v>0.4247814976032771</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.366489822362837</v>
+        <v>2.014891820959406</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8678597046847187</v>
+        <v>1.869696675764771</v>
       </c>
       <c r="C23">
-        <v>0.1170427248230226</v>
+        <v>0.128049742215687</v>
       </c>
       <c r="D23">
-        <v>0.5503441838607728</v>
+        <v>0.424805757639632</v>
       </c>
       <c r="E23">
-        <v>0.1792063940342139</v>
+        <v>0.0966184654867881</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.073662062744546</v>
+        <v>0.553812891345089</v>
       </c>
       <c r="H23">
-        <v>1.081048455247199</v>
+        <v>0.4219692440366458</v>
       </c>
       <c r="I23">
-        <v>1.105840473741445</v>
+        <v>0.4468324292556716</v>
       </c>
       <c r="J23">
-        <v>0.06925164190332467</v>
+        <v>0.02325720157154354</v>
       </c>
       <c r="K23">
-        <v>0.5743811643255299</v>
+        <v>1.616543650621111</v>
       </c>
       <c r="L23">
-        <v>0.4270031748038292</v>
+        <v>0.4115956700710086</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.375138839838314</v>
+        <v>2.005014761029003</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7902759015847209</v>
+        <v>1.600468158298497</v>
       </c>
       <c r="C24">
-        <v>0.1144091498538771</v>
+        <v>0.1203514105898975</v>
       </c>
       <c r="D24">
-        <v>0.5433006871067789</v>
+        <v>0.3824350905836695</v>
       </c>
       <c r="E24">
-        <v>0.1789463379914906</v>
+        <v>0.09052133032275478</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.08137770548079</v>
+        <v>0.5376727618144201</v>
       </c>
       <c r="H24">
-        <v>1.090769081477603</v>
+        <v>0.4248368984487314</v>
       </c>
       <c r="I24">
-        <v>1.118385409679529</v>
+        <v>0.45423138156794</v>
       </c>
       <c r="J24">
-        <v>0.0697874261788094</v>
+        <v>0.02396724568836461</v>
       </c>
       <c r="K24">
-        <v>0.5048010690796616</v>
+        <v>1.385457980629241</v>
       </c>
       <c r="L24">
-        <v>0.4163627313685367</v>
+        <v>0.3623415471674178</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.411437833768446</v>
+        <v>1.976183039873803</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7070464148094402</v>
+        <v>1.312072545261231</v>
       </c>
       <c r="C25">
-        <v>0.1115561047261338</v>
+        <v>0.1121071192042109</v>
       </c>
       <c r="D25">
-        <v>0.5365350312876558</v>
+        <v>0.3384864346409415</v>
       </c>
       <c r="E25">
-        <v>0.1789053031168351</v>
+        <v>0.08438078764115176</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.091809985801206</v>
+        <v>0.5253453989786863</v>
       </c>
       <c r="H25">
-        <v>1.102753098205312</v>
+        <v>0.430815568512017</v>
       </c>
       <c r="I25">
-        <v>1.133730618168585</v>
+        <v>0.4660569531824059</v>
       </c>
       <c r="J25">
-        <v>0.0704198822555977</v>
+        <v>0.02480887304293766</v>
       </c>
       <c r="K25">
-        <v>0.4297360613533385</v>
+        <v>1.137407192610453</v>
       </c>
       <c r="L25">
-        <v>0.4054590210379132</v>
+        <v>0.3104966671271256</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.458166086354794</v>
+        <v>1.96186266001439</v>
       </c>
     </row>
   </sheetData>
